--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="145">
   <si>
     <t>土地坐落</t>
   </si>
@@ -365,6 +365,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -387,6 +396,9 @@
   </si>
   <si>
     <t>1，500，000</t>
+  </si>
+  <si>
+    <t>2013-11-20</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2386,13 +2398,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2411,13 +2423,22 @@
       <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2434,13 +2455,22 @@
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2457,13 +2487,22 @@
       <c r="G3" s="2">
         <v>34400</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2480,13 +2519,22 @@
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2503,13 +2551,22 @@
       <c r="G5" s="2">
         <v>225960</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2521,18 +2578,27 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2549,13 +2615,22 @@
       <c r="G7" s="2">
         <v>143290</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2571,6 +2646,15 @@
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -2588,16 +2672,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2605,16 +2689,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2622,16 +2706,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2639,16 +2723,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2656,16 +2740,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2673,16 +2757,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2690,16 +2774,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="147">
   <si>
     <t>土地坐落</t>
   </si>
@@ -365,6 +365,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -389,13 +392,16 @@
     <t>國揚實業股份有限公司</t>
   </si>
   <si>
-    <t>中國合成橡膠股份有限公 司</t>
+    <t>中國合成橡膠股份有限公司</t>
   </si>
   <si>
     <t>新臺幣.</t>
   </si>
   <si>
-    <t>1，500，000</t>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-11-20</t>
@@ -2398,13 +2404,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2432,13 +2438,16 @@
       <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2456,21 +2465,24 @@
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2488,21 +2500,24 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2520,21 +2535,24 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2552,21 +2570,24 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2578,27 +2599,30 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2616,21 +2640,24 @@
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2648,12 +2675,15 @@
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>828</v>
       </c>
     </row>
@@ -2672,16 +2702,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2689,16 +2719,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2706,16 +2736,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2723,16 +2753,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2740,16 +2770,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2757,16 +2787,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2774,16 +2804,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="152">
   <si>
     <t>土地坐落</t>
   </si>
@@ -368,6 +368,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -377,6 +380,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -404,7 +413,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-20</t>
+  </si>
+  <si>
+    <t>tmp581f1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2404,13 +2419,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2441,13 +2456,22 @@
       <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2465,24 +2489,33 @@
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2500,24 +2533,33 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2535,24 +2577,33 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2570,24 +2621,33 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2599,30 +2659,39 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -2640,24 +2709,33 @@
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2675,16 +2753,25 @@
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>828</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2702,16 +2789,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2719,16 +2806,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2736,16 +2823,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2753,16 +2840,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2770,16 +2857,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2787,16 +2874,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2804,16 +2891,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,9 +18,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="152">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="157">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00010019地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00090001地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080002地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070003地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070004地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080051地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440002地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440004地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440005地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11420000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11430001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10660000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10950000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10640000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市新庄段重劃小段02240000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10890000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段00550000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10630000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10850000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00050002地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00050006地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00050010地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00050011地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00060001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>38280分之775</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>廖素惠</t>
+  </si>
+  <si>
+    <t>陳明文</t>
+  </si>
+  <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13曰</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>102年11月12曰</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>21780045</t>
+  </si>
+  <si>
+    <t>4248000</t>
+  </si>
+  <si>
+    <t>23666499</t>
+  </si>
+  <si>
+    <t>1309000</t>
+  </si>
+  <si>
+    <t>3761350</t>
+  </si>
+  <si>
+    <t>56000(與嘉義市末廣段四小段56及510及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>700000(與嘉義市末廣段四小段52及510及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>1344000(10嘉義市末廣段四小段52及56及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>1148000(與嘉義市末廣段四小段52及56及510及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>小段52及56及510及</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-20</t>
+  </si>
+  <si>
+    <t>tmp581f1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,220 +260,52 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段 0091-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0001-0019 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0009-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0003 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0051 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0005 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1142-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1143-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1066-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1095-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1064-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市新庄段重劃小段 0224-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1089-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段0055-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1063-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1085-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0005-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0005-0006 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0005-0010 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0005-0011 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0006-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>38280分之 775</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>廖素惠</t>
-  </si>
-  <si>
-    <t>陳明文</t>
-  </si>
-  <si>
-    <t>97年05月 30日</t>
-  </si>
-  <si>
-    <t>97年06月 23日</t>
-  </si>
-  <si>
-    <t>97年05月 23日</t>
-  </si>
-  <si>
-    <t>93年07月 13曰</t>
-  </si>
-  <si>
-    <t>93年07月 13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月 24日</t>
-  </si>
-  <si>
-    <t>99年06月 03日</t>
-  </si>
-  <si>
-    <t>102 年 11 月12曰</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>買賣.</t>
-  </si>
-  <si>
-    <t>21，780’045</t>
-  </si>
-  <si>
-    <t>4，248，000</t>
-  </si>
-  <si>
-    <t>23，666，499</t>
-  </si>
-  <si>
-    <t>1’309，000</t>
-  </si>
-  <si>
-    <t>3，761，350</t>
-  </si>
-  <si>
-    <t>56,000(與嘉 義市末廣段四 小段5-6及 5-10 及 5-11 及6-1地號及 672建號合購）</t>
-  </si>
-  <si>
-    <t>700’000(與嘉 義市末廣段四 小段5-2及 5-10 及 5-11 及6-1地號及 672建號合購）</t>
-  </si>
-  <si>
-    <t>1,344,000(10 嘉義市末廣段 四小段5-2及 5-6    及 5-11 及 6-1地號及672 建號合購）</t>
-  </si>
-  <si>
-    <t>1，148，000(與 嘉義市末廣段 四小段5-2及 5-6    及 5-10 及 6-1地號及672 建號合購）</t>
-  </si>
-  <si>
-    <t>小段5-2及 5-6 及 5-10 及</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市萬華區福星段00132-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 00272-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 00797-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 00969-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00551 -000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00552-000 建號</t>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00797000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00551000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00552000建號</t>
   </si>
   <si>
     <t>嘉義縣朴子市梅華里</t>
   </si>
   <si>
-    <t>嘉義市嘉義市末廣段四小段 00672-000 建號</t>
-  </si>
-  <si>
-    <t>98年04月 01日</t>
-  </si>
-  <si>
-    <t>97年09月 18日</t>
-  </si>
-  <si>
-    <t>97年09月 30日</t>
-  </si>
-  <si>
-    <t>102 年 10 月24曰</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>嘉義市嘉義市末廣段四小段00672000建號</t>
+  </si>
+  <si>
+    <t>98年04月01日</t>
+  </si>
+  <si>
+    <t>97年09月18日</t>
+  </si>
+  <si>
+    <t>97年09月30日</t>
+  </si>
+  <si>
+    <t>102年10月24曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>2，807，400</t>
-  </si>
-  <si>
-    <t>1，456，500</t>
+    <t>2807400</t>
+  </si>
+  <si>
+    <t>1456500</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -281,13 +332,13 @@
     <t>臺灣銀行嘉義分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行南嘉義 分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行仁愛分 行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行嘉義分 行</t>
+    <t>合作金庫商業銀行南嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行嘉義分行</t>
   </si>
   <si>
     <t>華南商業銀行營業部</t>
@@ -308,7 +359,7 @@
     <t>星展銀行南京東路分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行嘉義分 行</t>
+    <t>國泰世華商業銀行嘉義分行</t>
   </si>
   <si>
     <t>永豐商業銀行嘉義分行.</t>
@@ -344,13 +395,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>3，002，000</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>3002000</t>
   </si>
   <si>
     <t>quantity</t>
@@ -365,27 +410,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -413,15 +437,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-20</t>
-  </si>
-  <si>
-    <t>tmp581f1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -446,7 +461,7 @@
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>新富貴保本投資鏈結型保險 第7期</t>
+    <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
     <t>創世變額萬能壽險</t>
@@ -455,13 +470,13 @@
     <t>安泰還本終身壽險</t>
   </si>
   <si>
-    <t>年年沛616美元還本終身壽 險</t>
-  </si>
-  <si>
-    <t>88.05.07--108.05.7</t>
-  </si>
-  <si>
-    <t>100.06.13--106.06.12</t>
+    <t>年年沛616美元還本終身壽險</t>
+  </si>
+  <si>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
+    <t>100.06.13106.06.12</t>
   </si>
   <si>
     <t>94.12.30</t>
@@ -470,7 +485,7 @@
     <t>94.12.30(被保人:陳〇廷）</t>
   </si>
   <si>
-    <t>86.11.11--106.11.11(被保 險人:陳〇穎）</t>
+    <t>86.11.11106.11.11(被保險人:陳〇穎）</t>
   </si>
   <si>
     <t>101.06.29</t>
@@ -832,13 +847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,731 +875,1340 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2">
         <v>2700000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>1920000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>2712600</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>1890000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
         <v>1950000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>828</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>828</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2">
         <v>4554000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2">
+        <v>828</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>828</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2">
         <v>145980</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>828</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2">
         <v>196020</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2">
+        <v>828</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2">
         <v>6084000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2">
+        <v>828</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2">
         <v>2106000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="2">
+        <v>828</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2">
         <v>2682000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2">
+        <v>828</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="2">
+        <v>828</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2">
         <v>8948</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="2">
+        <v>828</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="2">
+        <v>828</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2">
         <v>1731000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="2">
+        <v>828</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="2">
+        <v>828</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H22" s="2">
         <v>872160</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="2">
+        <v>828</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H23" s="2">
         <v>2082500</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="2">
+        <v>828</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>1337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H24" s="2">
         <v>568225</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="2">
+        <v>828</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="2">
+        <v>828</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="2">
         <v>38</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="2">
+        <v>828</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="2">
+        <v>828</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="2">
+        <v>828</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="2">
+        <v>828</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1602,25 +2226,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1628,22 +2252,22 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>353.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>492300</v>
@@ -1654,22 +2278,22 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2">
         <v>163.18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>363300</v>
@@ -1680,25 +2304,25 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
         <v>954.39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1706,22 +2330,22 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>300.11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2">
         <v>878600</v>
@@ -1732,22 +2356,22 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>404.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2">
         <v>1371200</v>
@@ -1758,25 +2382,25 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>216.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1784,22 +2408,22 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2">
         <v>299</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H8" s="2">
         <v>550200</v>
@@ -1810,22 +2434,22 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <v>143.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
         <v>121500</v>
@@ -1846,22 +2470,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1869,16 +2493,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1890,16 +2514,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1911,16 +2535,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1932,16 +2556,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1953,16 +2577,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1974,16 +2598,16 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1995,16 +2619,16 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2016,16 +2640,16 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2037,16 +2661,16 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2058,16 +2682,16 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2079,16 +2703,16 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2100,16 +2724,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2121,16 +2745,16 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2142,16 +2766,16 @@
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2163,16 +2787,16 @@
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2184,16 +2808,16 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2205,16 +2829,16 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2226,16 +2850,16 @@
         <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2247,16 +2871,16 @@
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2268,16 +2892,16 @@
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2289,16 +2913,16 @@
         <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2310,16 +2934,16 @@
         <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2331,16 +2955,16 @@
         <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2352,16 +2976,16 @@
         <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2">
         <v>5068.37</v>
@@ -2375,20 +2999,20 @@
         <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2396,16 +3020,16 @@
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -2427,43 +3051,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2471,10 +3095,10 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>725000</v>
@@ -2483,28 +3107,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
         <v>116</v>
@@ -2515,10 +3139,10 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>3440</v>
@@ -2527,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
         <v>117</v>
@@ -2559,10 +3183,10 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>900000</v>
@@ -2571,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
         <v>118</v>
@@ -2603,10 +3227,10 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>22596</v>
@@ -2615,28 +3239,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
         <v>119</v>
@@ -2647,10 +3271,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>150000</v>
@@ -2659,28 +3283,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
         <v>120</v>
@@ -2691,10 +3315,10 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>14329</v>
@@ -2703,28 +3327,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2">
         <v>121</v>
@@ -2735,10 +3359,10 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
         <v>250000</v>
@@ -2747,28 +3371,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L8" s="2">
         <v>828</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2">
         <v>122</v>
@@ -2789,16 +3413,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2806,16 +3430,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2823,16 +3447,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2840,16 +3464,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,16 +3481,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2874,16 +3498,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2891,16 +3515,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段00910000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
@@ -161,108 +164,84 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13曰</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>102年11月12曰</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>4248000</t>
+  </si>
+  <si>
+    <t>23666499</t>
+  </si>
+  <si>
+    <t>1309000</t>
+  </si>
+  <si>
+    <t>3761350</t>
+  </si>
+  <si>
+    <t>56000(與嘉義市末廣段四小段56及510及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>700000(與嘉義市末廣段四小段52及510及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>1344000(10嘉義市末廣段四小段52及56及511及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>1148000(與嘉義市末廣段四小段52及56及510及61地號及672建號合購）</t>
+  </si>
+  <si>
+    <t>小段52及56及510及</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-20</t>
+  </si>
+  <si>
+    <t>tmp581f1</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
     <t>97年05月30日</t>
   </si>
   <si>
-    <t>97年06月23日</t>
-  </si>
-  <si>
-    <t>97年05月23日</t>
-  </si>
-  <si>
-    <t>93年07月13曰</t>
-  </si>
-  <si>
-    <t>93年07月13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月24日</t>
-  </si>
-  <si>
-    <t>99年06月03日</t>
-  </si>
-  <si>
-    <t>102年11月12曰</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>買賣.</t>
-  </si>
-  <si>
-    <t>21780045</t>
-  </si>
-  <si>
-    <t>4248000</t>
-  </si>
-  <si>
-    <t>23666499</t>
-  </si>
-  <si>
-    <t>1309000</t>
-  </si>
-  <si>
-    <t>3761350</t>
-  </si>
-  <si>
-    <t>56000(與嘉義市末廣段四小段56及510及511及61地號及672建號合購）</t>
-  </si>
-  <si>
-    <t>700000(與嘉義市末廣段四小段52及510及511及61地號及672建號合購）</t>
-  </si>
-  <si>
-    <t>1344000(10嘉義市末廣段四小段52及56及511及61地號及672建號合購）</t>
-  </si>
-  <si>
-    <t>1148000(與嘉義市末廣段四小段52及56及510及61地號及672建號合購）</t>
-  </si>
-  <si>
-    <t>小段52及56及510及</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-20</t>
-  </si>
-  <si>
-    <t>tmp581f1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市萬華區福星段00132000建號</t>
-  </si>
-  <si>
     <t>嘉義市嘉義市末廣段四小段00272000建號</t>
   </si>
   <si>
@@ -308,27 +287,15 @@
     <t>1456500</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺.幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行太保分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行嘉義分行</t>
   </si>
   <si>
@@ -380,18 +347,12 @@
     <t>玉山商業銀行東嘉義分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -407,12 +368,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>亞太電信股份有限公司</t>
-  </si>
-  <si>
     <t>統聯</t>
   </si>
   <si>
@@ -437,30 +392,21 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>得意還本終身</t>
+  </si>
+  <si>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>中國信託人壽</t>
   </si>
   <si>
-    <t>得意還本終身</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -471,9 +417,6 @@
   </si>
   <si>
     <t>年年沛616美元還本終身壽險</t>
-  </si>
-  <si>
-    <t>88.05.07108.05.7</t>
   </si>
   <si>
     <t>100.06.13106.06.12</t>
@@ -847,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,69 +839,81 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
+      <c r="H2" s="2">
+        <v>30000</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2">
         <v>828</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>48</v>
@@ -967,92 +922,104 @@
         <v>56</v>
       </c>
       <c r="H3" s="2">
-        <v>30000</v>
+        <v>2700000</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2">
         <v>828</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="2">
-        <v>2700000</v>
+        <v>1920000</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="2">
         <v>828</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>
@@ -1061,45 +1028,51 @@
         <v>56</v>
       </c>
       <c r="H5" s="2">
-        <v>1920000</v>
+        <v>2712600</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2">
         <v>828</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>49</v>
@@ -1108,45 +1081,51 @@
         <v>56</v>
       </c>
       <c r="H6" s="2">
-        <v>2712600</v>
+        <v>1890000</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="2">
         <v>828</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -1155,45 +1134,51 @@
         <v>56</v>
       </c>
       <c r="H7" s="2">
-        <v>1890000</v>
+        <v>1950000</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" s="2">
         <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>49</v>
@@ -1202,327 +1187,369 @@
         <v>56</v>
       </c>
       <c r="H8" s="2">
-        <v>1950000</v>
+        <v>300000</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2">
         <v>828</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
-        <v>300000</v>
+        <v>4554000</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2">
         <v>828</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="2">
-        <v>4554000</v>
+      <c r="H10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="2">
         <v>828</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>236</v>
+        <v>8.11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="H11" s="2">
+        <v>145980</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="2">
         <v>828</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>8.11</v>
+        <v>10.89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2">
-        <v>145980</v>
+        <v>196020</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" s="2">
         <v>828</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>10.89</v>
+        <v>338</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2">
-        <v>196020</v>
+        <v>6084000</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13" s="2">
         <v>828</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="2">
-        <v>6084000</v>
+        <v>2106000</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" s="2">
         <v>828</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>49</v>
@@ -1531,45 +1558,51 @@
         <v>56</v>
       </c>
       <c r="H15" s="2">
-        <v>2106000</v>
+        <v>2682000</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" s="2">
         <v>828</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>149</v>
+        <v>27297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
@@ -1577,140 +1610,158 @@
       <c r="G16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2">
-        <v>2682000</v>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" s="2">
         <v>828</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>27297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>27297</v>
+        <v>520</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>61</v>
+      <c r="H17" s="2">
+        <v>8948</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M17" s="2">
         <v>828</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0202455590386625</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10.5276907001045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>520</v>
+        <v>1540</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2">
-        <v>8948</v>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2">
         <v>828</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>1540</v>
+        <v>2308</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -1718,93 +1769,105 @@
       <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
+      <c r="H19" s="2">
+        <v>1731000</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" s="2">
         <v>828</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2308</v>
+        <v>4425</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1731000</v>
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M20" s="2">
         <v>828</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>4425</v>
+        <v>1264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>54</v>
@@ -1812,46 +1875,52 @@
       <c r="G21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>63</v>
+      <c r="H21" s="2">
+        <v>872160</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" s="2">
         <v>828</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>1264</v>
+        <v>2450</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>54</v>
@@ -1860,45 +1929,51 @@
         <v>57</v>
       </c>
       <c r="H22" s="2">
-        <v>872160</v>
+        <v>2082500</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="2">
         <v>828</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>2450</v>
+        <v>1337</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>54</v>
@@ -1907,92 +1982,104 @@
         <v>57</v>
       </c>
       <c r="H23" s="2">
-        <v>2082500</v>
+        <v>568225</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="2">
         <v>828</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>668.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1337</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="2">
-        <v>568225</v>
+      <c r="H24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M24" s="2">
         <v>828</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>55</v>
@@ -2004,42 +2091,48 @@
         <v>64</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M25" s="2">
         <v>828</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>55</v>
@@ -2051,42 +2144,48 @@
         <v>65</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M26" s="2">
         <v>828</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>55</v>
@@ -2098,46 +2197,50 @@
         <v>66</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M27" s="2">
         <v>828</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2145,70 +2248,31 @@
         <v>67</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M28" s="2">
         <v>828</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
         <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="2">
-        <v>828</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="2">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2226,68 +2290,68 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1">
+        <v>353.36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="1">
+        <v>492300</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
-        <v>353.36</v>
+        <v>163.18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="2">
-        <v>492300</v>
+        <v>363300</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
-        <v>163.18</v>
+        <v>954.39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
@@ -2295,163 +2359,137 @@
       <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2">
-        <v>363300</v>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
-        <v>954.39</v>
+        <v>300.11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="H4" s="2">
+        <v>878600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
-        <v>300.11</v>
+        <v>404.75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2">
-        <v>878600</v>
+        <v>1371200</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
-        <v>404.75</v>
+        <v>216.6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1371200</v>
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
-        <v>216.6</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="H7" s="2">
+        <v>550200</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2">
+        <v>143.89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2">
-        <v>299</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="H8" s="2">
-        <v>550200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2">
-        <v>143.89</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2">
         <v>121500</v>
       </c>
     </row>
@@ -2462,7 +2500,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,569 +2508,546 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>42943</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>42943</v>
+        <v>21481</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>21481</v>
+        <v>15435</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>15435</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2902</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>382</v>
+        <v>583497</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>583497</v>
+        <v>93183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>91</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>93183</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>308</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1234</v>
+        <v>368524</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>368524</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>93148</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>8458</v>
+        <v>84382</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>84382</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>104</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>10000</v>
+        <v>465000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>465000</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>34200</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>11236</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>2744</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>1179</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1813</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>1426</v>
+        <v>1414621</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>5068.37</v>
+      </c>
       <c r="G24" s="2">
-        <v>1414621</v>
+        <v>149719.64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5068.37</v>
-      </c>
-      <c r="G25" s="2">
-        <v>149719.64</v>
+        <v>46</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>110</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="G26" s="2">
         <v>2010000</v>
       </c>
     </row>
@@ -3043,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3057,16 +3072,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3092,309 +3107,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>725000</v>
+        <v>3440</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34400</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="2">
-        <v>7250000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
-        <v>3440</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9000000</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="2">
-        <v>34400</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>900000</v>
+        <v>22596</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2">
+        <v>225960</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="2">
-        <v>9000000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
-        <v>22596</v>
+        <v>150000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="2">
-        <v>225960</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
-        <v>150000</v>
+        <v>14329</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
+      </c>
+      <c r="G6" s="2">
+        <v>143290</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="2">
-        <v>14329</v>
+        <v>250000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="2">
-        <v>143290</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2">
-        <v>250000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="2">
-        <v>828</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="2">
         <v>122</v>
       </c>
     </row>
@@ -3405,7 +3376,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3413,118 +3384,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>153</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
     <t>97年06月23日</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
     <t>買賣.</t>
   </si>
   <si>
+    <t>21780045</t>
+  </si>
+  <si>
     <t>4248000</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
     <t>臺北市萬華區福星段00132000建號</t>
   </si>
   <si>
-    <t>97年05月30日</t>
-  </si>
-  <si>
     <t>嘉義市嘉義市末廣段四小段00272000建號</t>
   </si>
   <si>
@@ -366,6 +372,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>亞太電信股份有限公司</t>
   </si>
   <si>
     <t>統聯</t>
@@ -790,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,1430 +857,1483 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2">
-        <v>30000</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2">
         <v>828</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
-        <v>2700000</v>
+        <v>30000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2">
         <v>828</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
-        <v>1920000</v>
+        <v>2700000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2">
         <v>828</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
-        <v>2712600</v>
+        <v>1920000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2">
         <v>828</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
-        <v>1890000</v>
+        <v>2712600</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2">
         <v>828</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
-        <v>1950000</v>
+        <v>1890000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2">
         <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
-        <v>300000</v>
+        <v>1950000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="2">
         <v>828</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
-        <v>4554000</v>
+        <v>300000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2">
         <v>828</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="H10" s="2">
+        <v>4554000</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2">
         <v>828</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="2">
-        <v>145980</v>
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2">
         <v>828</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2">
-        <v>196020</v>
+        <v>145980</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12" s="2">
         <v>828</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2">
-        <v>6084000</v>
+        <v>196020</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="2">
         <v>828</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2">
-        <v>2106000</v>
+        <v>6084000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" s="2">
         <v>828</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2">
-        <v>2682000</v>
+        <v>2106000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M15" s="2">
         <v>828</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O15" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2682000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2">
         <v>828</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>520</v>
+        <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="2">
-        <v>8948</v>
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17" s="2">
         <v>828</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0202455590386625</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>10.5276907001045</v>
+        <v>27297</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1540</v>
+        <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8948</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="2">
         <v>828</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0.0202455590386625</v>
       </c>
       <c r="Q18" s="2">
-        <v>1540</v>
+        <v>10.5276907001045</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1731000</v>
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2">
         <v>828</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1731000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M20" s="2">
         <v>828</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="2">
-        <v>872160</v>
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M21" s="2">
         <v>828</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2">
-        <v>2082500</v>
+        <v>872160</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M22" s="2">
         <v>828</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>1337</v>
+        <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2">
-        <v>568225</v>
+        <v>2082500</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="2">
         <v>828</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>668.5</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>1337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="H24" s="2">
+        <v>568225</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M24" s="2">
         <v>828</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q24" s="2">
-        <v>2</v>
+        <v>668.5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M25" s="2">
         <v>828</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M26" s="2">
         <v>828</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M27" s="2">
         <v>828</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="2">
         <v>828</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O28" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
       </c>
       <c r="Q28" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="2">
+        <v>828</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="2">
+        <v>45</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2282,215 +2344,484 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2">
         <v>353.36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1">
-        <v>492300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2">
-        <v>163.18</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2">
+        <v>492300</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="2">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>353.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2">
+        <v>163.18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2">
+        <v>363300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="2">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>163.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2">
+        <v>954.39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="2">
+        <v>53</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>954.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2">
+        <v>300.11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2">
+        <v>878600</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="2">
+        <v>54</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>300.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2">
+        <v>404.75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1371200</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2">
+        <v>55</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>404.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>56</v>
       </c>
-      <c r="H2" s="2">
-        <v>363300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2">
-        <v>954.39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2">
+        <v>216.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="2">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2">
-        <v>300.11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="2">
-        <v>878600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2">
-        <v>404.75</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C8" s="2">
+        <v>299</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2">
+        <v>550200</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2">
+        <v>828</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="2">
+        <v>57</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1371200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2">
-        <v>216.6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="C9" s="2">
+        <v>143.89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2">
-        <v>299</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="2">
-        <v>550200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2">
+        <v>121500</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="2">
+        <v>828</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="2">
         <v>58</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>143.89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="2">
-        <v>121500</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2508,16 +2839,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2526,528 +2857,549 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>21481</v>
+        <v>42943</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>15435</v>
+        <v>21481</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2902</v>
+        <v>15435</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>382</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>583497</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>93183</v>
+        <v>583497</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>308</v>
+        <v>93183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1234</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>368524</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>93148</v>
+        <v>368524</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>8458</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>84382</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>104</v>
+        <v>84382</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10000</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>465000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>34200</v>
+        <v>465000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>11236</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>2744</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>1179</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>1813</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1426</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>1414621</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5068.37</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>149719.64</v>
+        <v>1414621</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5068.37</v>
+      </c>
+      <c r="G25" s="2">
+        <v>149719.64</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
+        <v>109</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>110</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
         <v>2010000</v>
       </c>
     </row>
@@ -3058,7 +3410,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3072,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3107,265 +3459,309 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
-        <v>3440</v>
+        <v>725000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2">
-        <v>34400</v>
+        <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>900000</v>
+        <v>3440</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2">
-        <v>9000000</v>
+        <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N3" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>22596</v>
+        <v>900000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
-        <v>225960</v>
+        <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
-        <v>150000</v>
+        <v>22596</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="G5" s="2">
+        <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N5" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="2">
-        <v>14329</v>
+        <v>150000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="2">
-        <v>143290</v>
+        <v>124</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>250000</v>
+        <v>14329</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2">
+        <v>143290</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2">
+        <v>828</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2">
+        <v>250000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2">
         <v>2500000</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="2">
-        <v>828</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="2">
+        <v>828</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="2">
         <v>122</v>
       </c>
     </row>
@@ -3376,7 +3772,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3384,101 +3780,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>152</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>153</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>137</v>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>1456500</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行太保分行</t>
@@ -2426,7 +2429,7 @@
         <v>492300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -2479,7 +2482,7 @@
         <v>363300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>72</v>
@@ -2532,7 +2535,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>72</v>
@@ -2585,7 +2588,7 @@
         <v>878600</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>72</v>
@@ -2638,7 +2641,7 @@
         <v>1371200</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>72</v>
@@ -2691,7 +2694,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>72</v>
@@ -2744,7 +2747,7 @@
         <v>550200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>72</v>
@@ -2797,7 +2800,7 @@
         <v>121500</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>72</v>
@@ -2839,13 +2842,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
@@ -2860,13 +2863,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
@@ -2881,13 +2884,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -2902,13 +2905,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -2923,13 +2926,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
@@ -2944,13 +2947,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
@@ -2965,13 +2968,13 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
@@ -2986,13 +2989,13 @@
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -3007,13 +3010,13 @@
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
@@ -3028,13 +3031,13 @@
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
@@ -3049,13 +3052,13 @@
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>47</v>
@@ -3070,13 +3073,13 @@
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>47</v>
@@ -3091,13 +3094,13 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
@@ -3112,13 +3115,13 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
@@ -3133,13 +3136,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>48</v>
@@ -3154,13 +3157,13 @@
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>48</v>
@@ -3175,13 +3178,13 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -3196,13 +3199,13 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -3217,13 +3220,13 @@
         <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
@@ -3238,13 +3241,13 @@
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
@@ -3259,13 +3262,13 @@
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
@@ -3280,13 +3283,13 @@
         <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
@@ -3301,13 +3304,13 @@
         <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
@@ -3322,13 +3325,13 @@
         <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>48</v>
@@ -3343,13 +3346,13 @@
         <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>47</v>
@@ -3366,20 +3369,20 @@
         <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3387,13 +3390,13 @@
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>47</v>
@@ -3424,13 +3427,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3462,7 +3465,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -3474,13 +3477,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3506,7 +3509,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -3518,13 +3521,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3550,7 +3553,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -3562,13 +3565,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3594,7 +3597,7 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -3606,13 +3609,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3638,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -3650,13 +3653,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3682,7 +3685,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3694,13 +3697,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>72</v>
@@ -3726,7 +3729,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
@@ -3738,13 +3741,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>72</v>
@@ -3780,16 +3783,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3797,16 +3800,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3814,16 +3817,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3831,16 +3834,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3848,16 +3851,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3865,16 +3868,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3882,16 +3885,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -296,85 +296,91 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行太保分行</t>
   </si>
   <si>
+    <t>臺灣銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行營業部</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市農會信用部</t>
+  </si>
+  <si>
+    <t>星展銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行嘉義分行.</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行總行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東嘉義分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行營業部</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市農會信用部</t>
-  </si>
-  <si>
-    <t>星展銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行嘉義分行.</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行總行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>3002000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>亞太電信股份有限公司</t>
@@ -2834,13 +2840,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2851,559 +2857,1097 @@
         <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>42943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>42943</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2">
+        <v>828</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>21481</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2">
+        <v>828</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>15435</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
+        <v>828</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2902</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2">
+        <v>828</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>828</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>583497</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>828</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>93183</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>828</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2">
+        <v>828</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1234</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2">
+        <v>828</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>368524</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2">
+        <v>828</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="2">
         <v>93</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>368524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2">
+        <v>93148</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2">
+        <v>828</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="2">
         <v>94</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>93148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>8458</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2">
+        <v>828</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>84382</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2">
+        <v>828</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2">
         <v>104</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
+        <v>828</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="2">
+        <v>828</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>465000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="2">
+        <v>828</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>34200</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="2">
+        <v>828</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>11236</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2">
+        <v>828</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>2744</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2">
+        <v>828</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>1179</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2">
+        <v>828</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>1813</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="2">
+        <v>828</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>1426</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="2">
+        <v>828</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>106</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>1414621</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="2">
+        <v>828</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="2">
-        <v>5068.37</v>
-      </c>
-      <c r="G25" s="2">
         <v>149719.64</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="2">
+        <v>828</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>3002000</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>118</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="2">
+        <v>828</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>2010000</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="2">
+        <v>828</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3427,13 +3971,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3465,7 +4009,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -3477,13 +4021,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>72</v>
@@ -3509,7 +4053,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -3521,13 +4065,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>72</v>
@@ -3553,7 +4097,7 @@
         <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -3565,13 +4109,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>72</v>
@@ -3597,7 +4141,7 @@
         <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -3609,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>72</v>
@@ -3641,7 +4185,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -3653,13 +4197,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>72</v>
@@ -3685,7 +4229,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>48</v>
@@ -3697,13 +4241,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>72</v>
@@ -3729,7 +4273,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
@@ -3741,13 +4285,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>72</v>
@@ -3783,16 +4327,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3800,16 +4344,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3817,16 +4361,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3834,16 +4378,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3851,16 +4395,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3868,16 +4412,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3885,16 +4429,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -410,21 +410,21 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>中國信託人壽</t>
+  </si>
+  <si>
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>88.05.07108.05.7</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>中國信託人壽</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -437,19 +437,7 @@
     <t>年年沛616美元還本終身壽險</t>
   </si>
   <si>
-    <t>100.06.13106.06.12</t>
-  </si>
-  <si>
-    <t>94.12.30</t>
-  </si>
-  <si>
-    <t>94.12.30(被保人:陳〇廷）</t>
-  </si>
-  <si>
-    <t>86.11.11106.11.11(被保險人:陳〇穎）</t>
-  </si>
-  <si>
-    <t>101.06.29</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4319,49 +4307,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2">
+        <v>828</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>135</v>
@@ -4372,13 +4396,31 @@
       <c r="E3" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2">
+        <v>828</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>136</v>
@@ -4387,15 +4429,33 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2">
+        <v>828</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>136</v>
@@ -4404,15 +4464,33 @@
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2">
+        <v>828</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>137</v>
@@ -4421,15 +4499,33 @@
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2">
+        <v>828</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>138</v>
@@ -4438,7 +4534,25 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2">
+        <v>828</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
+++ b/legislator/property/output/normal/陳明文_2013-11-20_財產申報表_tmp581f1.xlsx
@@ -11,14 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -408,6 +409,12 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>朱銘雕刻</t>
+  </si>
+  <si>
+    <t>antique</t>
   </si>
   <si>
     <t>company</t>
@@ -4307,6 +4314,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>142</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4315,7 +4408,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4350,16 +4443,16 @@
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
@@ -4385,16 +4478,16 @@
         <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
@@ -4420,16 +4513,16 @@
         <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
@@ -4455,16 +4548,16 @@
         <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>72</v>
@@ -4490,16 +4583,16 @@
         <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>72</v>
@@ -4525,16 +4618,16 @@
         <v>153</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>72</v>
